--- a/F01_config/blank_config.xlsx
+++ b/F01_config/blank_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eagle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D02_Dev_Fun\YOLOv5_Pipe\F01_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DF095-801B-42EA-8B8D-07615A64CA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8B7A6-67CF-45EE-B011-8829F749B5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="161">
   <si>
     <t>group</t>
   </si>
@@ -512,6 +512,15 @@
   </si>
   <si>
     <t>toothbrush</t>
+  </si>
+  <si>
+    <t>show_size</t>
+  </si>
+  <si>
+    <t>size of image when show (0 for now show)</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -604,17 +613,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -930,362 +939,375 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1304,10 +1326,10 @@
   <cols>
     <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="16384" width="8.88671875" style="9"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1315,493 +1337,493 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,6 +1832,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A03AACBE89D97642A089196509AFB083" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4d7d16f5b8c236fcab186e1d7485772">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="daa48dc8-098f-4a0b-a6c5-2c7eb72742ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea006b9f261b43702eeb76cfff1f0867" ns2:_="">
     <xsd:import namespace="daa48dc8-098f-4a0b-a6c5-2c7eb72742ff"/>
@@ -1999,12 +2027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2015,6 +2037,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C643D1F-3F29-47B6-9CA4-774EE1556D4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6063450E-4E7B-40CE-B6A6-6214EE1A735F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2032,15 +2063,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C643D1F-3F29-47B6-9CA4-774EE1556D4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D18EB3DC-35C8-4E16-BA85-526E9CD03F7B}">
   <ds:schemaRefs>
